--- a/src/sql/campos.xlsx
+++ b/src/sql/campos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>Form HTML</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Tabla</t>
   </si>
   <si>
+    <t>Tipo</t>
+  </si>
+  <si>
     <t>Campos sin identificar</t>
   </si>
   <si>
@@ -50,9 +53,15 @@
     <t>clientes</t>
   </si>
   <si>
+    <t>delete</t>
+  </si>
+  <si>
     <t>nombre</t>
   </si>
   <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
     <t>destinatario</t>
   </si>
   <si>
@@ -65,18 +74,33 @@
     <t>servicios</t>
   </si>
   <si>
+    <t>servicio</t>
+  </si>
+  <si>
+    <t>propuesta_economica</t>
+  </si>
+  <si>
     <t>archivo_excel</t>
   </si>
   <si>
+    <t>blob</t>
+  </si>
+  <si>
     <t>descripcion_servicio</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>numero_colaboradores</t>
   </si>
   <si>
     <t>numero_colaborador</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>uniforme_superior</t>
   </si>
   <si>
@@ -87,6 +111,9 @@
   </si>
   <si>
     <t>estado_republica</t>
+  </si>
+  <si>
+    <t>json</t>
   </si>
   <si>
     <t>uniforme_inferior</t>
@@ -183,7 +210,33 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,13 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FAADC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -558,16 +617,61 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,172 +775,184 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -890,221 +1006,7 @@
     <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1114,7 +1016,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1148,15 +1050,15 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1235,131 +1137,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1370,364 +1299,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
-    <col min="4" max="4" width="34.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="17.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="36.0095238095238" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.0095238095238" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7238095238095" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5809523809524" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5809523809524" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="E11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4" t="s">
+      <c r="B17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4" t="s">
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4" t="s">
+      <c r="B18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>